--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,299 +417,288 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39400</v>
+        <v>39765</v>
       </c>
       <c r="B2">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="D2">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="E2">
+        <v>2.651903832953884</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>39765</v>
+        <v>40130</v>
       </c>
       <c r="B3">
-        <v>2008</v>
+        <v>2009</v>
+      </c>
+      <c r="C3">
+        <v>0.1715429114845346</v>
       </c>
       <c r="D3">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="E3">
-        <v>0.6492937867006665</v>
+        <v>0.5356365903280924</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40130</v>
+        <v>40494</v>
       </c>
       <c r="B4">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C4">
-        <v>0.1715429114845346</v>
+        <v>0.8004663283405655</v>
       </c>
       <c r="D4">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="E4">
-        <v>0.8509156074281155</v>
+        <v>1.805987045940682</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40494</v>
+        <v>40862</v>
       </c>
       <c r="B5">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C5">
-        <v>0.8004663283405655</v>
+        <v>5.253783907501819</v>
       </c>
       <c r="D5">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="E5">
-        <v>4.859624274446639</v>
+        <v>4.382531137514767</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>40862</v>
+        <v>41228</v>
       </c>
       <c r="B6">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C6">
-        <v>5.253783907501819</v>
+        <v>3.522405026196918</v>
       </c>
       <c r="D6">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="E6">
-        <v>4.695210483877932</v>
+        <v>1.988448192515935</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41228</v>
+        <v>41592</v>
       </c>
       <c r="B7">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C7">
-        <v>3.522405026196918</v>
+        <v>1.656063945467268</v>
       </c>
       <c r="D7">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E7">
-        <v>1.881828690227838</v>
+        <v>3.166945525867848</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41592</v>
+        <v>41957</v>
       </c>
       <c r="B8">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C8">
-        <v>1.656063945467268</v>
+        <v>4.06235252733802</v>
       </c>
       <c r="D8">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="E8">
-        <v>3.853158971520942</v>
+        <v>3.684750195712683</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>41957</v>
+        <v>42321</v>
       </c>
       <c r="B9">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C9">
-        <v>4.06235252733802</v>
+        <v>3.05427116350534</v>
       </c>
       <c r="D9">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="E9">
-        <v>2.990570386122382</v>
+        <v>2.9587404276884</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42321</v>
+        <v>42689</v>
       </c>
       <c r="B10">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C10">
-        <v>3.05427116350534</v>
+        <v>2.305809238174006</v>
       </c>
       <c r="D10">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="E10">
-        <v>2.306783028297055</v>
+        <v>2.661643377950096</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>42689</v>
+        <v>43053</v>
       </c>
       <c r="B11">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C11">
-        <v>2.305809238174006</v>
+        <v>2.509111342826809</v>
       </c>
       <c r="D11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="E11">
-        <v>2.547114352819779</v>
+        <v>2.433248629349549</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43053</v>
+        <v>43418</v>
       </c>
       <c r="B12">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C12">
-        <v>2.509111342826809</v>
+        <v>3.296731496509198</v>
       </c>
       <c r="D12">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E12">
-        <v>3.218336425087465</v>
+        <v>3.296423324101938</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43418</v>
+        <v>43783</v>
       </c>
       <c r="B13">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C13">
-        <v>3.296731496509198</v>
+        <v>2.861315725866587</v>
       </c>
       <c r="D13">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="E13">
-        <v>2.926968792950002</v>
+        <v>2.763966172716947</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>43783</v>
+        <v>44159</v>
       </c>
       <c r="B14">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C14">
-        <v>2.861315725866587</v>
+        <v>1.790319754067715</v>
       </c>
       <c r="D14">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="E14">
-        <v>2.561163765278374</v>
+        <v>1.856930494010856</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44159</v>
+        <v>44525</v>
       </c>
       <c r="B15">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C15">
-        <v>1.790319754067715</v>
+        <v>2.339531676162721</v>
       </c>
       <c r="D15">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="E15">
-        <v>2.133537709052757</v>
+        <v>4.270817433327112</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44525</v>
+        <v>44890</v>
       </c>
       <c r="B16">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C16">
-        <v>2.339531676162721</v>
+        <v>4.834496776263886</v>
       </c>
       <c r="D16">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="E16">
-        <v>5.54163445616509</v>
+        <v>3.604316462518464</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>44890</v>
+        <v>45254</v>
       </c>
       <c r="B17">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C17">
-        <v>4.834496776263886</v>
+        <v>2.798216547494237</v>
       </c>
       <c r="D17">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="E17">
-        <v>3.492022830615338</v>
+        <v>2.098908173995873</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>45254</v>
+        <v>45618</v>
       </c>
       <c r="B18">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C18">
-        <v>2.798216547494237</v>
+        <v>1.530879676868468</v>
       </c>
       <c r="D18">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="E18">
-        <v>1.779426293060404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B19">
-        <v>2024</v>
-      </c>
-      <c r="C19">
-        <v>1.530879676868468</v>
-      </c>
-      <c r="D19">
-        <v>2025</v>
-      </c>
-      <c r="E19">
-        <v>2.103671369075166</v>
+        <v>1.874466487556892</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,288 +417,308 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>39765</v>
+        <v>39400</v>
       </c>
       <c r="B2">
+        <v>2007</v>
+      </c>
+      <c r="C2">
+        <v>5.896808312953783</v>
+      </c>
+      <c r="D2">
         <v>2008</v>
       </c>
-      <c r="D2">
-        <v>2009</v>
-      </c>
       <c r="E2">
-        <v>2.651903832953884</v>
+        <v>7.318442086255605</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>40130</v>
+        <v>39765</v>
       </c>
       <c r="B3">
+        <v>2008</v>
+      </c>
+      <c r="C3">
+        <v>7.441962824572235</v>
+      </c>
+      <c r="D3">
         <v>2009</v>
       </c>
-      <c r="C3">
-        <v>0.1715429114845346</v>
-      </c>
-      <c r="D3">
-        <v>2010</v>
-      </c>
       <c r="E3">
-        <v>0.5356365903280924</v>
+        <v>8.262942840582955</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>40494</v>
+        <v>40130</v>
       </c>
       <c r="B4">
+        <v>2009</v>
+      </c>
+      <c r="C4">
+        <v>6.277541464866987</v>
+      </c>
+      <c r="D4">
         <v>2010</v>
       </c>
-      <c r="C4">
-        <v>0.8004663283405655</v>
-      </c>
-      <c r="D4">
-        <v>2011</v>
-      </c>
       <c r="E4">
-        <v>1.805987045940682</v>
+        <v>7.915558093865038</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>40862</v>
+        <v>40494</v>
       </c>
       <c r="B5">
+        <v>2010</v>
+      </c>
+      <c r="C5">
+        <v>6.535114773304773</v>
+      </c>
+      <c r="D5">
         <v>2011</v>
       </c>
-      <c r="C5">
-        <v>5.253783907501819</v>
-      </c>
-      <c r="D5">
-        <v>2012</v>
-      </c>
       <c r="E5">
-        <v>4.382531137514767</v>
+        <v>6.402044794134309</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>41228</v>
+        <v>40862</v>
       </c>
       <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6">
+        <v>5.12051970717502</v>
+      </c>
+      <c r="D6">
         <v>2012</v>
       </c>
-      <c r="C6">
-        <v>3.522405026196918</v>
-      </c>
-      <c r="D6">
-        <v>2013</v>
-      </c>
       <c r="E6">
-        <v>1.988448192515935</v>
+        <v>5.160655543917292</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>41592</v>
+        <v>41228</v>
       </c>
       <c r="B7">
+        <v>2012</v>
+      </c>
+      <c r="C7">
+        <v>3.65682115264816</v>
+      </c>
+      <c r="D7">
         <v>2013</v>
       </c>
-      <c r="C7">
-        <v>1.656063945467268</v>
-      </c>
-      <c r="D7">
-        <v>2014</v>
-      </c>
       <c r="E7">
-        <v>3.166945525867848</v>
+        <v>3.62442670409151</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>41957</v>
+        <v>41592</v>
       </c>
       <c r="B8">
+        <v>2013</v>
+      </c>
+      <c r="C8">
+        <v>2.943878639034381</v>
+      </c>
+      <c r="D8">
         <v>2014</v>
       </c>
-      <c r="C8">
-        <v>4.06235252733802</v>
-      </c>
-      <c r="D8">
-        <v>2015</v>
-      </c>
       <c r="E8">
-        <v>3.684750195712683</v>
+        <v>3.771815305047821</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>42321</v>
+        <v>41957</v>
       </c>
       <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9">
+        <v>1.172679597477866</v>
+      </c>
+      <c r="D9">
         <v>2015</v>
       </c>
-      <c r="C9">
-        <v>3.05427116350534</v>
-      </c>
-      <c r="D9">
-        <v>2016</v>
-      </c>
       <c r="E9">
-        <v>2.9587404276884</v>
+        <v>1.204704113773114</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>42689</v>
+        <v>42321</v>
       </c>
       <c r="B10">
+        <v>2015</v>
+      </c>
+      <c r="C10">
+        <v>2.961845079861303</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C10">
-        <v>2.305809238174006</v>
-      </c>
-      <c r="D10">
-        <v>2017</v>
-      </c>
       <c r="E10">
-        <v>2.661643377950096</v>
+        <v>2.562199564969392</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>43053</v>
+        <v>42689</v>
       </c>
       <c r="B11">
+        <v>2016</v>
+      </c>
+      <c r="C11">
+        <v>2.508469427909898</v>
+      </c>
+      <c r="D11">
         <v>2017</v>
       </c>
-      <c r="C11">
-        <v>2.509111342826809</v>
-      </c>
-      <c r="D11">
-        <v>2018</v>
-      </c>
       <c r="E11">
-        <v>2.433248629349549</v>
+        <v>2.632055757778851</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>43418</v>
+        <v>43053</v>
       </c>
       <c r="B12">
+        <v>2017</v>
+      </c>
+      <c r="C12">
+        <v>3.523703831572056</v>
+      </c>
+      <c r="D12">
         <v>2018</v>
       </c>
-      <c r="C12">
-        <v>3.296731496509198</v>
-      </c>
-      <c r="D12">
-        <v>2019</v>
-      </c>
       <c r="E12">
-        <v>3.296423324101938</v>
+        <v>3.331068508781954</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>43783</v>
+        <v>43418</v>
       </c>
       <c r="B13">
+        <v>2018</v>
+      </c>
+      <c r="C13">
+        <v>1.178605266817589</v>
+      </c>
+      <c r="D13">
         <v>2019</v>
       </c>
-      <c r="C13">
-        <v>2.861315725866587</v>
-      </c>
-      <c r="D13">
-        <v>2020</v>
-      </c>
       <c r="E13">
-        <v>2.763966172716947</v>
+        <v>1.467147844249106</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>44159</v>
+        <v>43783</v>
       </c>
       <c r="B14">
+        <v>2019</v>
+      </c>
+      <c r="C14">
+        <v>3.047037961814492</v>
+      </c>
+      <c r="D14">
         <v>2020</v>
       </c>
-      <c r="C14">
-        <v>1.790319754067715</v>
-      </c>
-      <c r="D14">
-        <v>2021</v>
-      </c>
       <c r="E14">
-        <v>1.856930494010856</v>
+        <v>2.757054249287738</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>44525</v>
+        <v>44159</v>
       </c>
       <c r="B15">
+        <v>2020</v>
+      </c>
+      <c r="C15">
+        <v>-0.2228847697281378</v>
+      </c>
+      <c r="D15">
         <v>2021</v>
       </c>
-      <c r="C15">
-        <v>2.339531676162721</v>
-      </c>
-      <c r="D15">
-        <v>2022</v>
-      </c>
       <c r="E15">
-        <v>4.270817433327112</v>
+        <v>2.031388171904314</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>44890</v>
+        <v>44525</v>
       </c>
       <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16">
+        <v>-1.165854108406617</v>
+      </c>
+      <c r="D16">
         <v>2022</v>
       </c>
-      <c r="C16">
-        <v>4.834496776263886</v>
-      </c>
-      <c r="D16">
-        <v>2023</v>
-      </c>
       <c r="E16">
-        <v>3.604316462518464</v>
+        <v>2.209187654930855</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>45254</v>
+        <v>44890</v>
       </c>
       <c r="B17">
+        <v>2022</v>
+      </c>
+      <c r="C17">
+        <v>2.501311189006916</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="C17">
-        <v>2.798216547494237</v>
-      </c>
-      <c r="D17">
-        <v>2024</v>
-      </c>
       <c r="E17">
-        <v>2.098908173995873</v>
+        <v>2.819423640661167</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B18">
+        <v>2023</v>
+      </c>
+      <c r="C18">
+        <v>0.6753076481029074</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18">
+        <v>0.6583865490665364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
         <v>45618</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>2024</v>
       </c>
-      <c r="C18">
-        <v>1.530879676868468</v>
-      </c>
-      <c r="D18">
+      <c r="C19">
+        <v>2.039329803030121</v>
+      </c>
+      <c r="D19">
         <v>2025</v>
       </c>
-      <c r="E18">
-        <v>1.874466487556892</v>
+      <c r="E19">
+        <v>2.453497774623137</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_winter.xlsx
@@ -650,7 +650,7 @@
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>2.031388171904314</v>
+        <v>1.741559576439178</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -667,7 +667,7 @@
         <v>2022</v>
       </c>
       <c r="E16">
-        <v>2.209187654930855</v>
+        <v>0.6926065284462046</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -684,7 +684,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>2.819423640661167</v>
+        <v>2.055357398179147</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +701,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.6583865490665364</v>
+        <v>0.9064937165318643</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -718,7 +718,7 @@
         <v>2025</v>
       </c>
       <c r="E19">
-        <v>2.453497774623137</v>
+        <v>2.227147006388908</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_winter.xlsx
@@ -422,14 +422,8 @@
       <c r="B2">
         <v>2007</v>
       </c>
-      <c r="C2">
-        <v>5.896808312953783</v>
-      </c>
       <c r="D2">
         <v>2008</v>
-      </c>
-      <c r="E2">
-        <v>7.318442086255605</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -439,14 +433,11 @@
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3">
-        <v>7.441962824572235</v>
-      </c>
       <c r="D3">
         <v>2009</v>
       </c>
       <c r="E3">
-        <v>8.262942840582955</v>
+        <v>8.262942840582976</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +448,13 @@
         <v>2009</v>
       </c>
       <c r="C4">
-        <v>6.277541464866987</v>
+        <v>6.277541464866965</v>
       </c>
       <c r="D4">
         <v>2010</v>
       </c>
       <c r="E4">
-        <v>7.915558093865038</v>
+        <v>7.915558093865016</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +465,7 @@
         <v>2010</v>
       </c>
       <c r="C5">
-        <v>6.535114773304773</v>
+        <v>6.535114773304795</v>
       </c>
       <c r="D5">
         <v>2011</v>
@@ -514,7 +505,7 @@
         <v>2013</v>
       </c>
       <c r="E7">
-        <v>3.62442670409151</v>
+        <v>3.624426704091555</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -531,7 +522,7 @@
         <v>2014</v>
       </c>
       <c r="E8">
-        <v>3.771815305047821</v>
+        <v>3.771815305047843</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -565,7 +556,7 @@
         <v>2016</v>
       </c>
       <c r="E10">
-        <v>2.562199564969392</v>
+        <v>2.56219956496937</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +567,13 @@
         <v>2016</v>
       </c>
       <c r="C11">
-        <v>2.508469427909898</v>
+        <v>2.508469427909921</v>
       </c>
       <c r="D11">
         <v>2017</v>
       </c>
       <c r="E11">
-        <v>2.632055757778851</v>
+        <v>2.632055757778873</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -616,7 +607,7 @@
         <v>2019</v>
       </c>
       <c r="E13">
-        <v>1.467147844249106</v>
+        <v>1.467147844249128</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +618,13 @@
         <v>2019</v>
       </c>
       <c r="C14">
-        <v>3.047037961814492</v>
+        <v>3.047037961814514</v>
       </c>
       <c r="D14">
         <v>2020</v>
       </c>
       <c r="E14">
-        <v>2.757054249287738</v>
+        <v>2.75705424928776</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +635,13 @@
         <v>2020</v>
       </c>
       <c r="C15">
-        <v>-0.2228847697281378</v>
+        <v>-0.22288476972816</v>
       </c>
       <c r="D15">
         <v>2021</v>
       </c>
       <c r="E15">
-        <v>1.741559576439178</v>
+        <v>1.7415595764392</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,7 +652,7 @@
         <v>2021</v>
       </c>
       <c r="C16">
-        <v>-1.165854108406617</v>
+        <v>-1.165854108406639</v>
       </c>
       <c r="D16">
         <v>2022</v>
@@ -684,7 +675,7 @@
         <v>2023</v>
       </c>
       <c r="E17">
-        <v>2.055357398179147</v>
+        <v>2.055357398179125</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -701,7 +692,7 @@
         <v>2024</v>
       </c>
       <c r="E18">
-        <v>0.9064937165318643</v>
+        <v>0.9064937165318865</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,7 +703,7 @@
         <v>2024</v>
       </c>
       <c r="C19">
-        <v>2.039329803030121</v>
+        <v>2.039329803030099</v>
       </c>
       <c r="D19">
         <v>2025</v>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_winter.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_OPA_yoy_AVERAGE_10_9_winter.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -712,6 +712,23 @@
         <v>2.227147006388908</v>
       </c>
     </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B20">
+        <v>2025</v>
+      </c>
+      <c r="C20">
+        <v>2.46481303148316</v>
+      </c>
+      <c r="D20">
+        <v>2026</v>
+      </c>
+      <c r="E20">
+        <v>2.928470412166684</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
